--- a/Project/HLR.xlsx
+++ b/Project/HLR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashp\Documents\Software Testing Assignment\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashp\Documents\GitHub\Yash-Patel-Testing-Tops\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C39791-DFFE-4A86-BA12-00F65093F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C9092A-C6AB-463A-8B0B-45B349048896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D9BB1A6-E868-47B5-B4AD-9F2B97D5D1C2}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE3E6DB-DEFC-4CF1-B721-454528A36FAB}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1091,13 +1091,13 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
